--- a/data/hanzo-cloud/hanzo-demo-test_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-demo-test_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="163">
   <si>
     <t>Class Name</t>
   </si>
@@ -339,54 +339,54 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>val$projectPath</t>
+  </si>
+  <si>
     <t>val$pc</t>
   </si>
   <si>
     <t>com.baomidou.mybatisplus.generator.config.PackageConfig</t>
   </si>
   <si>
-    <t>val$projectPath</t>
+    <t>uId</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>uUsername</t>
   </si>
   <si>
     <t>uIdentity</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>uId</t>
+    <t>uPassword</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>uPoliceId</t>
+  </si>
+  <si>
+    <t>uPhone</t>
+  </si>
+  <si>
+    <t>uName</t>
   </si>
   <si>
     <t>uCa</t>
   </si>
   <si>
-    <t>uPassword</t>
-  </si>
-  <si>
-    <t>uUsername</t>
-  </si>
-  <si>
-    <t>uName</t>
-  </si>
-  <si>
     <t>uZw</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>uPoliceId</t>
-  </si>
-  <si>
     <t>uMail</t>
   </si>
   <si>
-    <t>uPhone</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
@@ -399,25 +399,25 @@
     <t>sysClientMapper</t>
   </si>
   <si>
+    <t>cDetail</t>
+  </si>
+  <si>
     <t>cId</t>
   </si>
   <si>
-    <t>cDetail</t>
-  </si>
-  <si>
     <t>cNameEng</t>
   </si>
   <si>
+    <t>cLock</t>
+  </si>
+  <si>
     <t>cNameCn</t>
   </si>
   <si>
-    <t>cLock</t>
+    <t>number</t>
   </si>
   <si>
     <t>num</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3345,7 +3345,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3364,24 +3364,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -3389,21 +3389,21 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -3411,10 +3411,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
@@ -3422,7 +3422,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>148</v>
@@ -3433,7 +3433,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>148</v>
@@ -3444,7 +3444,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>148</v>
@@ -3455,7 +3455,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>148</v>
@@ -3466,7 +3466,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>148</v>
@@ -3477,7 +3477,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>148</v>
@@ -3488,7 +3488,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>148</v>
@@ -3499,7 +3499,7 @@
         <v>34</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>148</v>
@@ -3510,7 +3510,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>148</v>
@@ -3521,7 +3521,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>148</v>
@@ -3532,7 +3532,7 @@
         <v>34</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>148</v>
@@ -3543,7 +3543,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>148</v>
@@ -3554,7 +3554,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>148</v>
@@ -3565,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>148</v>
@@ -3576,7 +3576,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>148</v>
@@ -3587,7 +3587,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>148</v>
@@ -3598,7 +3598,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>148</v>
@@ -3609,7 +3609,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>148</v>
@@ -3620,7 +3620,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>148</v>
@@ -3631,7 +3631,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>148</v>
@@ -3642,10 +3642,10 @@
         <v>34</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -3653,10 +3653,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
@@ -3664,21 +3664,21 @@
         <v>34</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -3686,21 +3686,21 @@
         <v>62</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -3708,10 +3708,10 @@
         <v>97</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
@@ -3719,10 +3719,10 @@
         <v>97</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -3730,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>157</v>
@@ -3738,13 +3738,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -3752,21 +3752,21 @@
         <v>71</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -3774,10 +3774,10 @@
         <v>74</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -3785,7 +3785,7 @@
         <v>74</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>148</v>
@@ -3796,7 +3796,7 @@
         <v>74</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>148</v>
@@ -3807,7 +3807,7 @@
         <v>74</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>148</v>
@@ -3818,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>148</v>
@@ -3829,7 +3829,7 @@
         <v>74</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>148</v>
@@ -3840,7 +3840,7 @@
         <v>74</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>148</v>
@@ -3851,7 +3851,7 @@
         <v>74</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>148</v>
@@ -3862,7 +3862,7 @@
         <v>74</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>148</v>
@@ -3873,7 +3873,7 @@
         <v>74</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>148</v>
@@ -3884,10 +3884,10 @@
         <v>74</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50">
@@ -3895,10 +3895,10 @@
         <v>74</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
@@ -3906,10 +3906,10 @@
         <v>74</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52">
@@ -3917,21 +3917,21 @@
         <v>74</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -3939,21 +3939,21 @@
         <v>86</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56">
@@ -3961,10 +3961,10 @@
         <v>88</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57">
@@ -3972,9 +3972,20 @@
         <v>88</v>
       </c>
       <c r="B57" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C58" t="s" s="0">
         <v>162</v>
       </c>
     </row>
@@ -4365,7 +4376,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -4373,13 +4384,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -4393,7 +4404,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -4407,7 +4418,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -4449,7 +4460,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -4457,7 +4468,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>109</v>
@@ -4471,7 +4482,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>109</v>
@@ -4485,13 +4496,13 @@
         <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -4555,13 +4566,13 @@
         <v>97</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
@@ -4569,13 +4580,13 @@
         <v>97</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>109</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -4603,7 +4614,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -4617,7 +4628,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -4645,7 +4656,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -4659,7 +4670,7 @@
         <v>109</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
